--- a/Data/times.xlsx
+++ b/Data/times.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FatigueDamage\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400DD266-3782-4F77-92C4-8DC2A614618E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10370"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lastfallliste" sheetId="1" r:id="rId1"/>
@@ -43,428 +49,422 @@
     <t>Simulationszeit in Sekunden</t>
   </si>
   <si>
-    <t>/home/louis/Git/SN-curve/Data/012_001</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
-    <t>/home/louis/Git/SN-curve/Data/012_002</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_003</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_004</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_005</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_006</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_007</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_008</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_009</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_010</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_011</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_012</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_013</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_014</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_015</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_016</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_017</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_018</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_019</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_020</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_021</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_022</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_023</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_024</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_025</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_026</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_027</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_028</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_029</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_030</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_031</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_032</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_033</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_034</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_035</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_036</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_037</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_038</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_039</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_040</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_041</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_042</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_043</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_044</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_045</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_046</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_047</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_048</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_049</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_050</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_051</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_052</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_053</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_054</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_055</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_056</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_057</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_058</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_059</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_060</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_061</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_062</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_063</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_064</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_065</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_066</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_067</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_068</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_069</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_070</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_071</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_072</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_073</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_074</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_075</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_076</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_077</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_078</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_079</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_080</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_081</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_082</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_083</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_084</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_085</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_086</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_087</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_088</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_089</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_090</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_091</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_092</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_093</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_094</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_095</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_096</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_097</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_098</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_099</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_100</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_101</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_102</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_103</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_104</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_105</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_106</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_107</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_108</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_109</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_110</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_111</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_112</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_113</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_114</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_115</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_116</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_117</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_118</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_119</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/012_120</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/041_001</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
-    <t>/home/louis/Git/SN-curve/Data/041_002</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/041_003</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/064_001</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/064_002</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/064_003</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/064_004</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/064_005</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/064_006</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/064_007</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/064_008</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/064_009</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/064_010</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/064_011</t>
-  </si>
-  <si>
-    <t>/home/louis/Git/SN-curve/Data/064_012</t>
+    <t>D:\Code\FatigueDamage\Data\012_001</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_002</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_003</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_004</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_005</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_006</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_007</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_008</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_009</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_010</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_011</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_012</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_013</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_014</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_015</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_016</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_017</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_018</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_019</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_020</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_021</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_022</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_023</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_024</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_025</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_026</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_027</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_028</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_029</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_030</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_031</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_032</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_033</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_034</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_035</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_036</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_037</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_038</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_039</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_040</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_041</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_042</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_043</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_044</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_045</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_046</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_047</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_048</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_049</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_050</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_051</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_052</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_053</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_054</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_055</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_056</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_057</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_058</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_059</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_060</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_061</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_062</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_063</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_064</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_065</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_066</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_067</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_068</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_069</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_070</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_071</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_072</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_073</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_074</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_075</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_076</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_077</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_078</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_079</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_080</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_081</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_082</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_083</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_084</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_085</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_086</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_087</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_088</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_089</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_090</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_091</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_092</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_093</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_094</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_095</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_096</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_097</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_098</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_099</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_100</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_101</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_102</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_103</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_104</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_105</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_106</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_107</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_108</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_109</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_110</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_111</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_112</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_113</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_114</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_115</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_116</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_117</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_118</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_119</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\012_120</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\041_001</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\041_002</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\041_003</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\064_001</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\064_002</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\064_003</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\064_004</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\064_005</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\064_006</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\064_007</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\064_008</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\064_009</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\064_010</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\064_011</t>
+  </si>
+  <si>
+    <t>D:\Code\FatigueDamage\Data\064_012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,152 +472,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,194 +492,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -960,251 +630,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1220,61 +648,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1532,32 +916,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="4.14285714285714" customWidth="1"/>
-    <col min="4" max="4" width="14.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="9.71428571428571" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" customWidth="1"/>
-    <col min="7" max="7" width="6.14285714285714" customWidth="1"/>
-    <col min="8" max="8" width="12.8571428571429" customWidth="1"/>
-    <col min="9" max="9" width="26.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.75" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1591,10 +975,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1603,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="5">
-        <v>96.0529528090103</v>
+        <v>96.052952809010307</v>
       </c>
       <c r="I2" s="7">
         <v>600</v>
@@ -1614,10 +998,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1626,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="5">
-        <v>96.0529528090103</v>
+        <v>96.052952809010307</v>
       </c>
       <c r="I3" s="7">
         <v>600</v>
@@ -1637,10 +1021,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1649,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="5">
-        <v>96.0529528090103</v>
+        <v>96.052952809010307</v>
       </c>
       <c r="I4" s="7">
         <v>600</v>
@@ -1660,10 +1044,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1672,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>96.0529528090103</v>
+        <v>96.052952809010307</v>
       </c>
       <c r="I5" s="7">
         <v>600</v>
@@ -1683,10 +1067,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1695,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="5">
-        <v>96.0529528090103</v>
+        <v>96.052952809010307</v>
       </c>
       <c r="I6" s="7">
         <v>600</v>
@@ -1706,10 +1090,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1718,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="5">
-        <v>96.0529528090103</v>
+        <v>96.052952809010307</v>
       </c>
       <c r="I7" s="7">
         <v>600</v>
@@ -1729,10 +1113,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1752,10 +1136,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1775,10 +1159,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1798,10 +1182,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1821,10 +1205,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1844,10 +1228,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1867,10 +1251,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1879,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="5">
-        <v>131.601345207415</v>
+        <v>131.60134520741499</v>
       </c>
       <c r="I14" s="7">
         <v>600</v>
@@ -1890,10 +1274,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1902,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="5">
-        <v>131.601345207415</v>
+        <v>131.60134520741499</v>
       </c>
       <c r="I15" s="7">
         <v>600</v>
@@ -1913,10 +1297,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1925,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="5">
-        <v>131.601345207415</v>
+        <v>131.60134520741499</v>
       </c>
       <c r="I16" s="7">
         <v>600</v>
@@ -1936,10 +1320,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1948,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="5">
-        <v>131.601345207415</v>
+        <v>131.60134520741499</v>
       </c>
       <c r="I17" s="7">
         <v>600</v>
@@ -1959,10 +1343,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1971,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="5">
-        <v>131.601345207415</v>
+        <v>131.60134520741499</v>
       </c>
       <c r="I18" s="7">
         <v>600</v>
@@ -1982,10 +1366,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1994,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="5">
-        <v>131.601345207415</v>
+        <v>131.60134520741499</v>
       </c>
       <c r="I19" s="7">
         <v>600</v>
@@ -2005,10 +1389,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2028,10 +1412,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2051,10 +1435,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2074,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2097,10 +1481,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2120,10 +1504,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2143,10 +1527,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2155,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="5">
-        <v>137.321835532022</v>
+        <v>137.32183553202199</v>
       </c>
       <c r="I26" s="7">
         <v>600</v>
@@ -2166,10 +1550,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2178,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="5">
-        <v>137.321835532022</v>
+        <v>137.32183553202199</v>
       </c>
       <c r="I27" s="7">
         <v>600</v>
@@ -2189,10 +1573,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2201,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="5">
-        <v>137.321835532022</v>
+        <v>137.32183553202199</v>
       </c>
       <c r="I28" s="7">
         <v>600</v>
@@ -2212,10 +1596,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2224,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="5">
-        <v>137.321835532022</v>
+        <v>137.32183553202199</v>
       </c>
       <c r="I29" s="7">
         <v>600</v>
@@ -2235,10 +1619,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2247,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="5">
-        <v>137.321835532022</v>
+        <v>137.32183553202199</v>
       </c>
       <c r="I30" s="7">
         <v>600</v>
@@ -2258,10 +1642,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2270,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="5">
-        <v>137.321835532022</v>
+        <v>137.32183553202199</v>
       </c>
       <c r="I31" s="7">
         <v>600</v>
@@ -2281,10 +1665,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2293,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="5">
-        <v>130.602363710707</v>
+        <v>130.60236371070701</v>
       </c>
       <c r="I32" s="7">
         <v>600</v>
@@ -2304,10 +1688,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2316,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="5">
-        <v>130.602363710707</v>
+        <v>130.60236371070701</v>
       </c>
       <c r="I33" s="7">
         <v>600</v>
@@ -2327,10 +1711,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2339,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="5">
-        <v>130.602363710707</v>
+        <v>130.60236371070701</v>
       </c>
       <c r="I34" s="7">
         <v>600</v>
@@ -2350,10 +1734,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -2362,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="5">
-        <v>130.602363710707</v>
+        <v>130.60236371070701</v>
       </c>
       <c r="I35" s="7">
         <v>600</v>
@@ -2373,10 +1757,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2385,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="5">
-        <v>130.602363710707</v>
+        <v>130.60236371070701</v>
       </c>
       <c r="I36" s="7">
         <v>600</v>
@@ -2396,10 +1780,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -2408,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="5">
-        <v>130.602363710707</v>
+        <v>130.60236371070701</v>
       </c>
       <c r="I37" s="7">
         <v>600</v>
@@ -2419,10 +1803,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2442,10 +1826,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2465,10 +1849,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2488,10 +1872,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2511,10 +1895,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2534,10 +1918,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2557,10 +1941,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2569,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="5">
-        <v>105.047985045542</v>
+        <v>105.04798504554201</v>
       </c>
       <c r="I44" s="7">
         <v>600</v>
@@ -2580,10 +1964,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2592,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="5">
-        <v>105.047985045542</v>
+        <v>105.04798504554201</v>
       </c>
       <c r="I45" s="7">
         <v>600</v>
@@ -2603,10 +1987,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2615,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="5">
-        <v>105.047985045542</v>
+        <v>105.04798504554201</v>
       </c>
       <c r="I46" s="7">
         <v>600</v>
@@ -2626,10 +2010,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2638,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="5">
-        <v>105.047985045542</v>
+        <v>105.04798504554201</v>
       </c>
       <c r="I47" s="7">
         <v>600</v>
@@ -2649,10 +2033,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2661,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="5">
-        <v>105.047985045542</v>
+        <v>105.04798504554201</v>
       </c>
       <c r="I48" s="7">
         <v>600</v>
@@ -2672,10 +2056,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2684,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="5">
-        <v>105.047985045542</v>
+        <v>105.04798504554201</v>
       </c>
       <c r="I49" s="7">
         <v>600</v>
@@ -2695,10 +2079,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2718,10 +2102,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2741,10 +2125,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2764,10 +2148,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2787,10 +2171,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2810,10 +2194,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2833,10 +2217,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -2845,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="5">
-        <v>73.5437599265689</v>
+        <v>73.543759926568896</v>
       </c>
       <c r="I56" s="7">
         <v>600</v>
@@ -2856,10 +2240,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -2868,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="5">
-        <v>73.5437599265689</v>
+        <v>73.543759926568896</v>
       </c>
       <c r="I57" s="7">
         <v>600</v>
@@ -2879,10 +2263,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2891,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="5">
-        <v>73.5437599265689</v>
+        <v>73.543759926568896</v>
       </c>
       <c r="I58" s="7">
         <v>600</v>
@@ -2902,10 +2286,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -2914,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="5">
-        <v>73.5437599265689</v>
+        <v>73.543759926568896</v>
       </c>
       <c r="I59" s="7">
         <v>600</v>
@@ -2925,10 +2309,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -2937,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="5">
-        <v>73.5437599265689</v>
+        <v>73.543759926568896</v>
       </c>
       <c r="I60" s="7">
         <v>600</v>
@@ -2948,10 +2332,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -2960,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="5">
-        <v>73.5437599265689</v>
+        <v>73.543759926568896</v>
       </c>
       <c r="I61" s="7">
         <v>600</v>
@@ -2971,10 +2355,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -2983,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="5">
-        <v>58.6597417540961</v>
+        <v>58.659741754096103</v>
       </c>
       <c r="I62" s="7">
         <v>600</v>
@@ -2994,10 +2378,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -3006,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="5">
-        <v>58.6597417540961</v>
+        <v>58.659741754096103</v>
       </c>
       <c r="I63" s="7">
         <v>600</v>
@@ -3017,10 +2401,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -3029,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="5">
-        <v>58.6597417540961</v>
+        <v>58.659741754096103</v>
       </c>
       <c r="I64" s="7">
         <v>600</v>
@@ -3040,10 +2424,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -3052,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="5">
-        <v>58.6597417540961</v>
+        <v>58.659741754096103</v>
       </c>
       <c r="I65" s="7">
         <v>600</v>
@@ -3063,10 +2447,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -3075,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="5">
-        <v>58.6597417540961</v>
+        <v>58.659741754096103</v>
       </c>
       <c r="I66" s="7">
         <v>600</v>
@@ -3086,10 +2470,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -3098,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="5">
-        <v>58.6597417540961</v>
+        <v>58.659741754096103</v>
       </c>
       <c r="I67" s="7">
         <v>600</v>
@@ -3109,10 +2493,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -3121,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="5">
-        <v>45.3857526071759</v>
+        <v>45.385752607175903</v>
       </c>
       <c r="I68" s="7">
         <v>600</v>
@@ -3132,10 +2516,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -3144,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="5">
-        <v>45.3857526071759</v>
+        <v>45.385752607175903</v>
       </c>
       <c r="I69" s="7">
         <v>600</v>
@@ -3155,10 +2539,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -3167,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="5">
-        <v>45.3857526071759</v>
+        <v>45.385752607175903</v>
       </c>
       <c r="I70" s="7">
         <v>600</v>
@@ -3178,10 +2562,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -3190,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="5">
-        <v>45.3857526071759</v>
+        <v>45.385752607175903</v>
       </c>
       <c r="I71" s="7">
         <v>600</v>
@@ -3201,10 +2585,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -3213,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="5">
-        <v>45.3857526071759</v>
+        <v>45.385752607175903</v>
       </c>
       <c r="I72" s="7">
         <v>600</v>
@@ -3224,10 +2608,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -3236,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="5">
-        <v>45.3857526071759</v>
+        <v>45.385752607175903</v>
       </c>
       <c r="I73" s="7">
         <v>600</v>
@@ -3247,10 +2631,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -3259,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="5">
-        <v>34.0910171513389</v>
+        <v>34.091017151338903</v>
       </c>
       <c r="I74" s="7">
         <v>600</v>
@@ -3270,10 +2654,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -3282,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="5">
-        <v>34.0910171513389</v>
+        <v>34.091017151338903</v>
       </c>
       <c r="I75" s="7">
         <v>600</v>
@@ -3293,10 +2677,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -3305,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="5">
-        <v>34.0910171513389</v>
+        <v>34.091017151338903</v>
       </c>
       <c r="I76" s="7">
         <v>600</v>
@@ -3316,10 +2700,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -3328,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="5">
-        <v>34.0910171513389</v>
+        <v>34.091017151338903</v>
       </c>
       <c r="I77" s="7">
         <v>600</v>
@@ -3339,10 +2723,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -3351,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="5">
-        <v>34.0910171513389</v>
+        <v>34.091017151338903</v>
       </c>
       <c r="I78" s="7">
         <v>600</v>
@@ -3362,10 +2746,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -3374,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="5">
-        <v>34.0910171513389</v>
+        <v>34.091017151338903</v>
       </c>
       <c r="I79" s="7">
         <v>600</v>
@@ -3385,10 +2769,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -3408,10 +2792,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3431,10 +2815,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3454,10 +2838,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3477,10 +2861,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -3500,10 +2884,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3523,10 +2907,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -3535,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="5">
-        <v>17.6440947769801</v>
+        <v>17.644094776980101</v>
       </c>
       <c r="I86" s="7">
         <v>600</v>
@@ -3546,10 +2930,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -3558,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="5">
-        <v>17.6440947769801</v>
+        <v>17.644094776980101</v>
       </c>
       <c r="I87" s="7">
         <v>600</v>
@@ -3569,10 +2953,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -3581,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="5">
-        <v>17.6440947769801</v>
+        <v>17.644094776980101</v>
       </c>
       <c r="I88" s="7">
         <v>600</v>
@@ -3592,10 +2976,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -3604,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="5">
-        <v>17.6440947769801</v>
+        <v>17.644094776980101</v>
       </c>
       <c r="I89" s="7">
         <v>600</v>
@@ -3615,10 +2999,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -3627,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="5">
-        <v>17.6440947769801</v>
+        <v>17.644094776980101</v>
       </c>
       <c r="I90" s="7">
         <v>600</v>
@@ -3638,10 +3022,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -3650,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="5">
-        <v>17.6440947769801</v>
+        <v>17.644094776980101</v>
       </c>
       <c r="I91" s="7">
         <v>600</v>
@@ -3661,10 +3045,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3673,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="5">
-        <v>12.1693530379555</v>
+        <v>12.169353037955499</v>
       </c>
       <c r="I92" s="7">
         <v>600</v>
@@ -3684,10 +3068,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -3696,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="5">
-        <v>12.1693530379555</v>
+        <v>12.169353037955499</v>
       </c>
       <c r="I93" s="7">
         <v>600</v>
@@ -3707,10 +3091,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -3719,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="5">
-        <v>12.1693530379555</v>
+        <v>12.169353037955499</v>
       </c>
       <c r="I94" s="7">
         <v>600</v>
@@ -3730,10 +3114,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -3742,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="5">
-        <v>12.1693530379555</v>
+        <v>12.169353037955499</v>
       </c>
       <c r="I95" s="7">
         <v>600</v>
@@ -3753,10 +3137,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -3765,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="5">
-        <v>12.1693530379555</v>
+        <v>12.169353037955499</v>
       </c>
       <c r="I96" s="7">
         <v>600</v>
@@ -3776,10 +3160,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -3788,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="5">
-        <v>12.1693530379555</v>
+        <v>12.169353037955499</v>
       </c>
       <c r="I97" s="7">
         <v>600</v>
@@ -3799,10 +3183,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -3811,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="5">
-        <v>8.16498724604422</v>
+        <v>8.1649872460442197</v>
       </c>
       <c r="I98" s="7">
         <v>600</v>
@@ -3822,10 +3206,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -3834,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="5">
-        <v>8.16498724604422</v>
+        <v>8.1649872460442197</v>
       </c>
       <c r="I99" s="7">
         <v>600</v>
@@ -3845,10 +3229,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -3857,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="5">
-        <v>8.16498724604422</v>
+        <v>8.1649872460442197</v>
       </c>
       <c r="I100" s="7">
         <v>600</v>
@@ -3868,10 +3252,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -3880,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="5">
-        <v>8.16498724604422</v>
+        <v>8.1649872460442197</v>
       </c>
       <c r="I101" s="7">
         <v>600</v>
@@ -3891,10 +3275,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -3903,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="H102" s="5">
-        <v>8.16498724604422</v>
+        <v>8.1649872460442197</v>
       </c>
       <c r="I102" s="7">
         <v>600</v>
@@ -3914,10 +3298,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -3926,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="5">
-        <v>8.16498724604422</v>
+        <v>8.1649872460442197</v>
       </c>
       <c r="I103" s="7">
         <v>600</v>
@@ -3937,10 +3321,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -3949,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="5">
-        <v>5.33090822379162</v>
+        <v>5.3309082237916199</v>
       </c>
       <c r="I104" s="7">
         <v>600</v>
@@ -3960,10 +3344,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -3972,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="5">
-        <v>5.33090822379162</v>
+        <v>5.3309082237916199</v>
       </c>
       <c r="I105" s="7">
         <v>600</v>
@@ -3983,10 +3367,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -3995,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="5">
-        <v>5.33090822379162</v>
+        <v>5.3309082237916199</v>
       </c>
       <c r="I106" s="7">
         <v>600</v>
@@ -4006,10 +3390,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -4018,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="H107" s="5">
-        <v>5.33090822379162</v>
+        <v>5.3309082237916199</v>
       </c>
       <c r="I107" s="7">
         <v>600</v>
@@ -4029,10 +3413,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -4041,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="5">
-        <v>5.33090822379162</v>
+        <v>5.3309082237916199</v>
       </c>
       <c r="I108" s="7">
         <v>600</v>
@@ -4052,10 +3436,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -4064,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="H109" s="5">
-        <v>5.33090822379162</v>
+        <v>5.3309082237916199</v>
       </c>
       <c r="I109" s="7">
         <v>600</v>
@@ -4075,10 +3459,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -4087,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="H110" s="5">
-        <v>3.38783426424852</v>
+        <v>3.3878342642485202</v>
       </c>
       <c r="I110" s="7">
         <v>600</v>
@@ -4098,10 +3482,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -4110,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="H111" s="5">
-        <v>3.38783426424852</v>
+        <v>3.3878342642485202</v>
       </c>
       <c r="I111" s="7">
         <v>600</v>
@@ -4121,10 +3505,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -4133,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="H112" s="5">
-        <v>3.38783426424852</v>
+        <v>3.3878342642485202</v>
       </c>
       <c r="I112" s="7">
         <v>600</v>
@@ -4144,10 +3528,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -4156,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="H113" s="5">
-        <v>3.38783426424852</v>
+        <v>3.3878342642485202</v>
       </c>
       <c r="I113" s="7">
         <v>600</v>
@@ -4167,10 +3551,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4179,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="H114" s="5">
-        <v>3.38783426424852</v>
+        <v>3.3878342642485202</v>
       </c>
       <c r="I114" s="7">
         <v>600</v>
@@ -4190,10 +3574,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -4202,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="5">
-        <v>3.38783426424852</v>
+        <v>3.3878342642485202</v>
       </c>
       <c r="I115" s="7">
         <v>600</v>
@@ -4213,10 +3597,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -4236,10 +3620,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -4259,10 +3643,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -4282,10 +3666,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -4305,10 +3689,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -4328,10 +3712,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -4351,10 +3735,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D122" s="5">
         <v>2000</v>
@@ -4377,7 +3761,7 @@
         <v>132</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D123" s="5">
         <v>100</v>
@@ -4400,7 +3784,7 @@
         <v>133</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D124" s="5">
         <v>100</v>
@@ -4423,7 +3807,7 @@
         <v>134</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -4446,7 +3830,7 @@
         <v>135</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -4469,7 +3853,7 @@
         <v>136</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -4492,7 +3876,7 @@
         <v>137</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -4515,7 +3899,7 @@
         <v>138</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -4538,7 +3922,7 @@
         <v>139</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -4561,7 +3945,7 @@
         <v>140</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -4570,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="H131" s="5">
-        <v>2.88840912968717</v>
+        <v>2.8884091296871701</v>
       </c>
       <c r="I131" s="7">
         <v>600</v>
@@ -4584,7 +3968,7 @@
         <v>141</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -4593,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="H132" s="5">
-        <v>2.88840912968717</v>
+        <v>2.8884091296871701</v>
       </c>
       <c r="I132" s="7">
         <v>600</v>
@@ -4607,7 +3991,7 @@
         <v>142</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -4616,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="H133" s="5">
-        <v>2.88840912968717</v>
+        <v>2.8884091296871701</v>
       </c>
       <c r="I133" s="7">
         <v>600</v>
@@ -4630,7 +4014,7 @@
         <v>143</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -4639,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="H134" s="5">
-        <v>2.88840912968717</v>
+        <v>2.8884091296871701</v>
       </c>
       <c r="I134" s="7">
         <v>600</v>
@@ -4653,7 +4037,7 @@
         <v>144</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -4662,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="H135" s="5">
-        <v>2.88840912968717</v>
+        <v>2.8884091296871701</v>
       </c>
       <c r="I135" s="7">
         <v>600</v>
@@ -4676,7 +4060,7 @@
         <v>145</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -4685,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="9">
-        <v>2.88840912968717</v>
+        <v>2.8884091296871701</v>
       </c>
       <c r="I136" s="7">
         <v>600</v>
@@ -4703,7 +4087,6 @@
       <c r="I137" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>